--- a/person/乔子璇/userstory.xlsx
+++ b/person/乔子璇/userstory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6870" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Usser Model</t>
   </si>
@@ -465,6 +465,9 @@
     <t>user story</t>
   </si>
   <si>
+    <t>设置联系人</t>
+  </si>
+  <si>
     <t>作为一个活动子女，我希望能够即时联系到父母，以便于即时了解父母的情况</t>
   </si>
   <si>
@@ -474,32 +477,65 @@
     <t>Not Done</t>
   </si>
   <si>
+    <t xml:space="preserve">子女远程为父母设置事件提醒
+</t>
+  </si>
+  <si>
     <t>作为一名活动子女，我希望当我不在其父母身边时父母可以照顾好自己的生活，以便于减轻我的顾虑</t>
+  </si>
+  <si>
+    <t>聊天功能</t>
   </si>
   <si>
     <t xml:space="preserve">作为一位长辈，我希望能够时常联系到子女，以便于了解子女的近况 
 </t>
   </si>
   <si>
+    <t xml:space="preserve">父母可自己设置
+事件提醒
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">作为一位长辈，我希望自理生活中的琐事，不让子女在为我操心以便于减少子女的负担
 </t>
   </si>
   <si>
+    <t>为父母设置紧急
+联系人</t>
+  </si>
+  <si>
     <t>作为一位长辈，我希望在我遇到紧急情况时，可以及时联系到子女，避免意外的发生</t>
   </si>
   <si>
+    <t>一键导航回家</t>
+  </si>
+  <si>
     <t>作为一位长辈，我希望当我出远门时可以找到回家的路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定位父母实
+时位置
+</t>
   </si>
   <si>
     <t>作为一位普通子女，
 我希望当我不在父母身边时，可以知道父母的位置，以便了解父母情况</t>
   </si>
   <si>
+    <t>亲情相册分享</t>
+  </si>
+  <si>
     <t>作为一位普通子女，
 我希望可以了解父母的详细情况例如照片等</t>
   </si>
   <si>
+    <t>编辑个人信息</t>
+  </si>
+  <si>
     <t>作为一位软件使用者，我需要更改个人信息，以便于贴合实际生活</t>
+  </si>
+  <si>
+    <t>账号管理</t>
   </si>
   <si>
     <t>作为一位软件使用者，我需要注册登录，以便
@@ -558,6 +594,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -566,137 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,25 +782,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,157 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,30 +1177,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,6 +1230,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1226,10 +1262,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,137 +1274,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,6 +1435,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1832,54 +1871,54 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="26" spans="1:5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" ht="26" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" ht="26" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1901,12 +1940,13 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="10.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="15.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="45.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1935,31 +1975,31 @@
       <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1976,14 +2016,17 @@
       <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2005,14 +2048,17 @@
       <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -2034,14 +2080,17 @@
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2063,14 +2112,17 @@
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E5" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2092,14 +2144,17 @@
       <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2121,14 +2176,17 @@
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2150,14 +2208,17 @@
       <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2179,14 +2240,17 @@
       <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2208,14 +2272,17 @@
       <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2237,14 +2304,17 @@
       <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11">
         <v>2</v>
